--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/任务目标配置表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/任务目标配置表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE64294-51C3-4CB2-BEED-EA5C8558D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD8D7B1-3D2E-4BD7-A1E9-385902377C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="828" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="828" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestObjective|任务目标表++" sheetId="17" r:id="rId1"/>
@@ -8553,7 +8553,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>'E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\[任务目标配置表1.xlsx](辅助)任务目标参数表'!#REF!</xm:f>
+            <xm:f>'E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\[任务目标配置表1.xlsx](辅助)任务目标参数表'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>P5 P26</xm:sqref>
         </x14:dataValidation>
@@ -11317,7 +11317,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>'E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\[任务目标配置表 - 副本.xlsx](辅助)任务目标参数表'!#REF!</xm:f>
+            <xm:f>'E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\[任务目标配置表 - 副本.xlsx](辅助)任务目标参数表'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>P4 P5 P6 P7:P18</xm:sqref>
         </x14:dataValidation>
